--- a/biology/Zoologie/Frégate_d'Andrews/Frégate_d'Andrews.xlsx
+++ b/biology/Zoologie/Frégate_d'Andrews/Frégate_d'Andrews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_d%27Andrews</t>
+          <t>Frégate_d'Andrews</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fregata andrewsi
 La Frégate d'Andrews (Fregata andrewsi) est endémique à l'Île Christmas, située dans l'Océan Indien. Comme les autres espèces de frégates, la Frégate d'Andrews ne marche ni ne nage mais est une virtuose des airs qui se nourrit en saisissant des proies vivantes sur les plages ou à la surface de l'eau, ou encore en les subtilisant en vol par l'attaque d'autres oiseaux.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_d%27Andrews</t>
+          <t>Frégate_d'Andrews</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Australie et Asie du Sud-Est.
 </t>
